--- a/Assignment1/G22_Acceptance.Ass1.xlsx
+++ b/Assignment1/G22_Acceptance.Ass1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Req. number</t>
   </si>
@@ -303,6 +303,15 @@
   <si>
     <t>1. Click “Pay Bill”.
 2. Enter payment details</t>
+  </si>
+  <si>
+    <t>Group 22</t>
+  </si>
+  <si>
+    <t>עמאד טאהא emad.taha@e.braude.ac.il עיסא שבלי esa.shibli@e.braude.ac.il</t>
+  </si>
+  <si>
+    <t>אחמד שחאדה ahmad.shhade@e.braude.ac.il יאמן אבו אחמד ואוי yamen.abu.ahmad.wawi@e.braude.ac.il</t>
   </si>
 </sst>
 </file>
@@ -715,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,67 +745,61 @@
     <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="5" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -804,10 +807,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -815,21 +818,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -837,21 +840,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -859,10 +862,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -870,10 +873,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -881,10 +884,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -892,10 +895,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -903,10 +906,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -914,10 +917,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -925,10 +928,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -936,54 +939,54 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -991,10 +994,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1002,10 +1005,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1013,10 +1016,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1024,10 +1027,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1035,10 +1038,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1046,12 +1049,34 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1065,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
